--- a/data/Training_WQXMeta.xlsx
+++ b/data/Training_WQXMeta.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Example input files\Official Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d8cbaaa4eaa566d/Documents/1 ACASAK/MassWateR/Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8085BA-692E-46C5-AB6F-BEB1B5FA209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3BBAF533-832D-495A-8E44-624ED2AF167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38FE513E-0F0C-4987-81E1-35B639AA0300}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
+    <sheet name="Values" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t>Parameter</t>
   </si>
@@ -101,6 +111,9 @@
   </si>
   <si>
     <t>Unfiltered</t>
+  </si>
+  <si>
+    <t>TDP</t>
   </si>
   <si>
     <t>The Meta tab must be formatted exactly like the Meta template, with all of the following fields.</t>
@@ -132,25 +145,193 @@
     <t>Enter the Context for the Sampling Method IDs that are used for sampling this parameter.  Not applicable for field measurements/observations.  If you are using the standard methods defined by MassWateR, enter the context "MassWateR".</t>
   </si>
   <si>
+    <t>Air Temp</t>
+  </si>
+  <si>
+    <t>Algae, blue-green (phylum cyanophyta) density</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Ammonium</t>
+  </si>
+  <si>
+    <t>Chl a</t>
+  </si>
+  <si>
+    <t>Chl a (probe)</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>Chlorophyll a</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (probe)</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (probe) concentration, Cyanobacteria (bluegreen)</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Cyanobacteria (lab)</t>
+  </si>
+  <si>
+    <t>Cyanobacteria (probe)</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Depth, Secchi disk depth</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen (DO)</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen saturation</t>
+  </si>
+  <si>
+    <t>DO saturation</t>
+  </si>
+  <si>
+    <t>Enterococcus</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Gage</t>
+  </si>
+  <si>
+    <t>Height, gage</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Microcystins</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Nitrate + Nitrite</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Ortho P</t>
+  </si>
+  <si>
+    <t>Orthophosphate</t>
+  </si>
+  <si>
+    <t>Particulate organic carbon</t>
+  </si>
+  <si>
+    <t>Pheophytin</t>
+  </si>
+  <si>
+    <t>Pheophytin a</t>
+  </si>
+  <si>
+    <t>Phosphorus, Particulate Organic</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>PON</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Secchi Depth</t>
+  </si>
+  <si>
+    <t>Silicate</t>
+  </si>
+  <si>
+    <t>Sp Conductance</t>
+  </si>
+  <si>
+    <t>Specific conductance</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>Surfactants</t>
+  </si>
+  <si>
+    <t>TDN</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Temperature, air</t>
+  </si>
+  <si>
+    <t>Temperature, water</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Total dissolved solids</t>
+  </si>
+  <si>
+    <t>Total Kjeldahl nitrogen</t>
+  </si>
+  <si>
+    <t>Total Nitrogen, mixed forms</t>
+  </si>
+  <si>
+    <t>Total Phosphorus, mixed forms</t>
+  </si>
+  <si>
+    <t>Total suspended solids</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Water Temp</t>
   </si>
   <si>
-    <t>Sp Conductance</t>
+    <t>Template updated 8/16/23</t>
   </si>
   <si>
     <t>200.7</t>
   </si>
   <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
     <t>as N</t>
   </si>
   <si>
     <t>300.0</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
   </si>
   <si>
     <t>4500-NH3 D</t>
@@ -166,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +379,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -262,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,6 +495,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,23 +816,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973C1027-43ED-409D-9786-38F45BEFD8D3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="14" customWidth="1"/>
-    <col min="2" max="6" width="13.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="14" customWidth="1"/>
+    <col min="2" max="6" width="13.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -651,9 +852,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -671,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -691,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -711,9 +912,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -731,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -745,53 +946,53 @@
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
@@ -805,11 +1006,167 @@
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90EFF19B-56A7-412E-AB16-205199CA04AE}">
+          <x14:formula1>
+            <xm:f>Values!$A$2:$A$65</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83CEA30-4E88-458A-AFF2-D4098CA8390C}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,140 +1174,344 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D13"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D19496D-9F94-455A-8561-BC20AA16612A}">
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="96.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
